--- a/E-mail Automation/E-mail Rules.xlsx
+++ b/E-mail Automation/E-mail Rules.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\UiPath\Mooc\mail pdf doc and text\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6936"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Sender</t>
   </si>
@@ -32,35 +27,29 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>siemens.com</t>
-  </si>
-  <si>
-    <t>amazon.com</t>
-  </si>
-  <si>
     <t>uipath.com</t>
   </si>
   <si>
-    <t>yourCompany.com</t>
-  </si>
-  <si>
-    <t>Siemens</t>
-  </si>
-  <si>
-    <t>AMZ</t>
-  </si>
-  <si>
     <t>UiPath</t>
   </si>
   <si>
-    <t>YourC</t>
+    <t>spotify.com</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>Facebook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -165,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -217,7 +206,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -411,26 +400,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,36 +427,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
